--- a/Architecture/bin/Debug/EmployeeData.xlsx
+++ b/Architecture/bin/Debug/EmployeeData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>EmployeeID</t>
   </si>
@@ -46,190 +46,253 @@
     <t>29/05/1998</t>
   </si>
   <si>
+    <t>simion.razvan1999@gmail.com</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>Hart</t>
+  </si>
+  <si>
+    <t>01/01/2000</t>
+  </si>
+  <si>
+    <t>jack.hart@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GR - Greece </t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Leo</t>
+  </si>
+  <si>
+    <t>Salva</t>
+  </si>
+  <si>
+    <t>leo.salva@gmail.com</t>
+  </si>
+  <si>
+    <t>SE - Sweden</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>Joshua</t>
+  </si>
+  <si>
+    <t>paul.joshua@gmail.com</t>
+  </si>
+  <si>
+    <t>AT - Austria</t>
+  </si>
+  <si>
+    <t>Samuel</t>
+  </si>
+  <si>
+    <t>Jackson</t>
+  </si>
+  <si>
+    <t>16/02/1999</t>
+  </si>
+  <si>
+    <t>samuel.jack@gmail.com</t>
+  </si>
+  <si>
+    <t>LV - Latvia</t>
+  </si>
+  <si>
+    <t>Rama</t>
+  </si>
+  <si>
+    <t>Alayoubi</t>
+  </si>
+  <si>
+    <t>20/08/1998</t>
+  </si>
+  <si>
+    <t>rama1999@gmail.com</t>
+  </si>
+  <si>
+    <t>SY - Syria</t>
+  </si>
+  <si>
+    <t>Vasilis</t>
+  </si>
+  <si>
+    <t>Karras</t>
+  </si>
+  <si>
+    <t>1/1/1967</t>
+  </si>
+  <si>
+    <t>zazzoko@abv.bg</t>
+  </si>
+  <si>
+    <t>Admin1</t>
+  </si>
+  <si>
+    <t>1/1/2000</t>
+  </si>
+  <si>
+    <t>Admin1@Admin1</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Products</t>
+  </si>
+  <si>
+    <t>Admin2</t>
+  </si>
+  <si>
+    <t>Admin3</t>
+  </si>
+  <si>
+    <t>admin33@gmail.com</t>
+  </si>
+  <si>
+    <t>Manager1</t>
+  </si>
+  <si>
+    <t>Manager1@Manager1</t>
+  </si>
+  <si>
+    <t>Manager2</t>
+  </si>
+  <si>
+    <t>Manager2@Manager2</t>
+  </si>
+  <si>
+    <t>Manager3</t>
+  </si>
+  <si>
+    <t>Manager3@Manager3</t>
+  </si>
+  <si>
+    <t>Manager4</t>
+  </si>
+  <si>
+    <t>Manager4@Manager4</t>
+  </si>
+  <si>
+    <t>Manager5</t>
+  </si>
+  <si>
+    <t>Manager5@Manager4</t>
+  </si>
+  <si>
+    <t>DepotWorker1</t>
+  </si>
+  <si>
+    <t>DepotWorker1@DepotWorker1</t>
+  </si>
+  <si>
+    <t>DepotWorker2</t>
+  </si>
+  <si>
+    <t>DepotWorker2@DepotWorker2</t>
+  </si>
+  <si>
+    <t>DepotWorker3</t>
+  </si>
+  <si>
+    <t>DepotWorker3@DepotWorker3</t>
+  </si>
+  <si>
+    <t>DepotWorker4</t>
+  </si>
+  <si>
+    <t>DepotWorker4@DepotWorker4</t>
+  </si>
+  <si>
+    <t>DepotWorker5</t>
+  </si>
+  <si>
+    <t>DepotWorker5@DepotWorker5</t>
+  </si>
+  <si>
+    <t>DepotWorker6</t>
+  </si>
+  <si>
+    <t>1/6/2000</t>
+  </si>
+  <si>
+    <t>depot@hotmail.com</t>
+  </si>
+  <si>
+    <t>Mihai</t>
+  </si>
+  <si>
+    <t>Simion</t>
+  </si>
+  <si>
+    <t>30/12/1999</t>
+  </si>
+  <si>
     <t>simion.razvan2000@gmail.com</t>
   </si>
   <si>
-    <t>EN</t>
-  </si>
-  <si>
-    <t>Marketing</t>
-  </si>
-  <si>
-    <t>Jack</t>
-  </si>
-  <si>
-    <t>Hart</t>
-  </si>
-  <si>
-    <t>01/01/2000</t>
-  </si>
-  <si>
-    <t>jack.hart@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GR - Greece </t>
-  </si>
-  <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t>Leo</t>
-  </si>
-  <si>
-    <t>Salva</t>
-  </si>
-  <si>
-    <t>leo.salva@gmail.com</t>
-  </si>
-  <si>
-    <t>SE - Sweden</t>
-  </si>
-  <si>
-    <t>Paul</t>
-  </si>
-  <si>
-    <t>Joshua</t>
-  </si>
-  <si>
-    <t>paul.joshua@gmail.com</t>
-  </si>
-  <si>
-    <t>AT - Austria</t>
-  </si>
-  <si>
-    <t>Samuel</t>
-  </si>
-  <si>
-    <t>Jackson</t>
-  </si>
-  <si>
-    <t>16/02/1999</t>
-  </si>
-  <si>
-    <t>samuel.jack@gmail.com</t>
-  </si>
-  <si>
-    <t>LV - Latvia</t>
-  </si>
-  <si>
-    <t>Rama</t>
-  </si>
-  <si>
-    <t>Alayoubi</t>
-  </si>
-  <si>
-    <t>20/08/2000</t>
-  </si>
-  <si>
-    <t>rama1999@hotmail.com</t>
-  </si>
-  <si>
-    <t>SY - Syria</t>
-  </si>
-  <si>
-    <t>Vasilis</t>
-  </si>
-  <si>
-    <t>Karras</t>
-  </si>
-  <si>
-    <t>1/1/1967</t>
-  </si>
-  <si>
-    <t>zazzoko@abv.bg</t>
-  </si>
-  <si>
-    <t>Admin1</t>
-  </si>
-  <si>
-    <t>1/1/2000</t>
-  </si>
-  <si>
-    <t>Admin1@Admin1</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>Products</t>
-  </si>
-  <si>
-    <t>Admin2</t>
-  </si>
-  <si>
-    <t>Admin3</t>
-  </si>
-  <si>
-    <t>Admin3@Admin3</t>
-  </si>
-  <si>
-    <t>Manager1</t>
-  </si>
-  <si>
-    <t>Manager1@Manager1</t>
-  </si>
-  <si>
-    <t>Manager2</t>
-  </si>
-  <si>
-    <t>Manager2@Manager2</t>
-  </si>
-  <si>
-    <t>Manager3</t>
-  </si>
-  <si>
-    <t>Manager3@Manager3</t>
-  </si>
-  <si>
-    <t>Manager4</t>
-  </si>
-  <si>
-    <t>Manager4@Manager4</t>
-  </si>
-  <si>
-    <t>Manager5</t>
-  </si>
-  <si>
-    <t>Manager5@Manager4</t>
-  </si>
-  <si>
-    <t>DepotWorker1</t>
-  </si>
-  <si>
-    <t>DepotWorker1@DepotWorker1</t>
-  </si>
-  <si>
-    <t>DepotWorker2</t>
-  </si>
-  <si>
-    <t>DepotWorker2@DepotWorker2</t>
-  </si>
-  <si>
-    <t>DepotWorker3</t>
-  </si>
-  <si>
-    <t>DepotWorker3@DepotWorker3</t>
-  </si>
-  <si>
-    <t>DepotWorker4</t>
-  </si>
-  <si>
-    <t>DepotWorker4@DepotWorker4</t>
-  </si>
-  <si>
-    <t>DepotWorker5</t>
-  </si>
-  <si>
-    <t>DepotWorker5@DepotWorker5</t>
-  </si>
-  <si>
-    <t>DepotWorker6</t>
-  </si>
-  <si>
-    <t>1/6/2000</t>
-  </si>
-  <si>
-    <t>depot@hotmail.com</t>
+    <t>BE - Belgium</t>
+  </si>
+  <si>
+    <t>Jake</t>
+  </si>
+  <si>
+    <t>Pal</t>
+  </si>
+  <si>
+    <t>MT - Malta</t>
+  </si>
+  <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>Moura</t>
+  </si>
+  <si>
+    <t>EE - Estonia</t>
+  </si>
+  <si>
+    <t>Ronald</t>
+  </si>
+  <si>
+    <t>DE - Germany</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>SI - Slovenia</t>
+  </si>
+  <si>
+    <t>Tst2</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>PT - Portugal</t>
+  </si>
+  <si>
+    <t>Test3</t>
+  </si>
+  <si>
+    <t>CY - Cyprus</t>
   </si>
 </sst>
 </file>
@@ -577,7 +640,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
   <sheetPr/>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScale="100" view="normal"/>
   </sheetViews>
@@ -1085,6 +1148,153 @@
         <v>45</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23">
+        <v>101</v>
+      </c>
+      <c r="B23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23"/>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>102</v>
+      </c>
+      <c r="B24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24"/>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>103</v>
+      </c>
+      <c r="B25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25" t="s">
+        <v>82</v>
+      </c>
+      <c r="G25"/>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>104</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" t="s">
+        <v>75</v>
+      </c>
+      <c r="F26" t="s">
+        <v>84</v>
+      </c>
+      <c r="G26"/>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>105</v>
+      </c>
+      <c r="B27" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" t="s">
+        <v>75</v>
+      </c>
+      <c r="F27" t="s">
+        <v>87</v>
+      </c>
+      <c r="G27"/>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>106</v>
+      </c>
+      <c r="B28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28" t="s">
+        <v>90</v>
+      </c>
+      <c r="G28"/>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>107</v>
+      </c>
+      <c r="B29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" t="s">
+        <v>75</v>
+      </c>
+      <c r="F29" t="s">
+        <v>92</v>
+      </c>
+      <c r="G29"/>
+    </row>
   </sheetData>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup orientation="portrait" scale="100" paperSize="9" fitToWidth="0" fitToHeight="0" horizontalDpi="0" verticalDpi="0" copies="1"/>

--- a/Architecture/bin/Debug/EmployeeData.xlsx
+++ b/Architecture/bin/Debug/EmployeeData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
   <si>
     <t>EmployeeID</t>
   </si>
@@ -37,222 +37,225 @@
     <t>Departament</t>
   </si>
   <si>
-    <t>Josh</t>
-  </si>
-  <si>
-    <t>Davis</t>
-  </si>
-  <si>
-    <t>29/05/1998</t>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>Hart</t>
+  </si>
+  <si>
+    <t>01/01/2000</t>
+  </si>
+  <si>
+    <t>jack.hart@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GR - Greece </t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Leo</t>
+  </si>
+  <si>
+    <t>Salva</t>
+  </si>
+  <si>
+    <t>leo.salva@gmail.com</t>
+  </si>
+  <si>
+    <t>SE - Sweden</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>Joshua</t>
+  </si>
+  <si>
+    <t>paul.joshua@gmail.com</t>
+  </si>
+  <si>
+    <t>AT - Austria</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Samuel</t>
+  </si>
+  <si>
+    <t>Jackson</t>
+  </si>
+  <si>
+    <t>16/02/1999</t>
+  </si>
+  <si>
+    <t>samuel.jack@gmail.com</t>
+  </si>
+  <si>
+    <t>LV - Latvia</t>
+  </si>
+  <si>
+    <t>Rama</t>
+  </si>
+  <si>
+    <t>Alayoubi</t>
+  </si>
+  <si>
+    <t>20/08/1998</t>
+  </si>
+  <si>
+    <t>rama1999@gmail.com</t>
+  </si>
+  <si>
+    <t>SY - Syria</t>
+  </si>
+  <si>
+    <t>Vasilis</t>
+  </si>
+  <si>
+    <t>Karras</t>
+  </si>
+  <si>
+    <t>1/1/1967</t>
+  </si>
+  <si>
+    <t>zazzoko@abv.bg</t>
+  </si>
+  <si>
+    <t>Admin1</t>
+  </si>
+  <si>
+    <t>1/1/2000</t>
+  </si>
+  <si>
+    <t>Admin1@Admin1</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Products</t>
+  </si>
+  <si>
+    <t>Admin2</t>
+  </si>
+  <si>
+    <t>Admin3</t>
+  </si>
+  <si>
+    <t>admin33@gmail.com</t>
+  </si>
+  <si>
+    <t>Manager1</t>
+  </si>
+  <si>
+    <t>Manager1@Manager1</t>
+  </si>
+  <si>
+    <t>Manager2</t>
+  </si>
+  <si>
+    <t>Manager2@Manager2</t>
+  </si>
+  <si>
+    <t>Manager3</t>
+  </si>
+  <si>
+    <t>Manager3@Manager3</t>
+  </si>
+  <si>
+    <t>Manager4</t>
+  </si>
+  <si>
+    <t>Manager4@Manager4</t>
+  </si>
+  <si>
+    <t>Manager5</t>
+  </si>
+  <si>
+    <t>Manager5@Manager4</t>
+  </si>
+  <si>
+    <t>DepotWorker1</t>
+  </si>
+  <si>
+    <t>DepotWorker1@DepotWorker1</t>
+  </si>
+  <si>
+    <t>DepotWorker2</t>
+  </si>
+  <si>
+    <t>DepotWorker2@DepotWorker2</t>
+  </si>
+  <si>
+    <t>DepotWorker3</t>
+  </si>
+  <si>
+    <t>DepotWorker3@DepotWorker3</t>
+  </si>
+  <si>
+    <t>DepotWorker4</t>
+  </si>
+  <si>
+    <t>DepotWorker4@DepotWorker4</t>
+  </si>
+  <si>
+    <t>DepotWorker5</t>
+  </si>
+  <si>
+    <t>DepotWorker5@DepotWorker5</t>
+  </si>
+  <si>
+    <t>DepotWorker6</t>
+  </si>
+  <si>
+    <t>1/6/2000</t>
+  </si>
+  <si>
+    <t>depot@hotmail.com</t>
+  </si>
+  <si>
+    <t>Obaida</t>
+  </si>
+  <si>
+    <t>Bolbol</t>
+  </si>
+  <si>
+    <t>1/1/1991</t>
+  </si>
+  <si>
+    <t>ranimrose1996@yahoo.com</t>
+  </si>
+  <si>
+    <t>Mihai</t>
+  </si>
+  <si>
+    <t>Simion</t>
+  </si>
+  <si>
+    <t>30/12/1999</t>
   </si>
   <si>
     <t>simion.razvan1999@gmail.com</t>
   </si>
   <si>
-    <t>EN</t>
-  </si>
-  <si>
-    <t>Marketing</t>
-  </si>
-  <si>
-    <t>Jack</t>
-  </si>
-  <si>
-    <t>Hart</t>
-  </si>
-  <si>
-    <t>01/01/2000</t>
-  </si>
-  <si>
-    <t>jack.hart@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GR - Greece </t>
-  </si>
-  <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t>Leo</t>
-  </si>
-  <si>
-    <t>Salva</t>
-  </si>
-  <si>
-    <t>leo.salva@gmail.com</t>
-  </si>
-  <si>
-    <t>SE - Sweden</t>
-  </si>
-  <si>
-    <t>Paul</t>
-  </si>
-  <si>
-    <t>Joshua</t>
-  </si>
-  <si>
-    <t>paul.joshua@gmail.com</t>
-  </si>
-  <si>
-    <t>AT - Austria</t>
-  </si>
-  <si>
-    <t>Samuel</t>
-  </si>
-  <si>
-    <t>Jackson</t>
-  </si>
-  <si>
-    <t>16/02/1999</t>
-  </si>
-  <si>
-    <t>samuel.jack@gmail.com</t>
-  </si>
-  <si>
-    <t>LV - Latvia</t>
-  </si>
-  <si>
-    <t>Rama</t>
-  </si>
-  <si>
-    <t>Alayoubi</t>
-  </si>
-  <si>
-    <t>20/08/1998</t>
-  </si>
-  <si>
-    <t>rama1999@gmail.com</t>
-  </si>
-  <si>
-    <t>SY - Syria</t>
-  </si>
-  <si>
-    <t>Vasilis</t>
-  </si>
-  <si>
-    <t>Karras</t>
-  </si>
-  <si>
-    <t>1/1/1967</t>
-  </si>
-  <si>
-    <t>zazzoko@abv.bg</t>
-  </si>
-  <si>
-    <t>Admin1</t>
-  </si>
-  <si>
-    <t>1/1/2000</t>
-  </si>
-  <si>
-    <t>Admin1@Admin1</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>Products</t>
-  </si>
-  <si>
-    <t>Admin2</t>
-  </si>
-  <si>
-    <t>Admin3</t>
-  </si>
-  <si>
-    <t>admin33@gmail.com</t>
-  </si>
-  <si>
-    <t>Manager1</t>
-  </si>
-  <si>
-    <t>Manager1@Manager1</t>
-  </si>
-  <si>
-    <t>Manager2</t>
-  </si>
-  <si>
-    <t>Manager2@Manager2</t>
-  </si>
-  <si>
-    <t>Manager3</t>
-  </si>
-  <si>
-    <t>Manager3@Manager3</t>
-  </si>
-  <si>
-    <t>Manager4</t>
-  </si>
-  <si>
-    <t>Manager4@Manager4</t>
-  </si>
-  <si>
-    <t>Manager5</t>
-  </si>
-  <si>
-    <t>Manager5@Manager4</t>
-  </si>
-  <si>
-    <t>DepotWorker1</t>
-  </si>
-  <si>
-    <t>DepotWorker1@DepotWorker1</t>
-  </si>
-  <si>
-    <t>DepotWorker2</t>
-  </si>
-  <si>
-    <t>DepotWorker2@DepotWorker2</t>
-  </si>
-  <si>
-    <t>DepotWorker3</t>
-  </si>
-  <si>
-    <t>DepotWorker3@DepotWorker3</t>
-  </si>
-  <si>
-    <t>DepotWorker4</t>
-  </si>
-  <si>
-    <t>DepotWorker4@DepotWorker4</t>
-  </si>
-  <si>
-    <t>DepotWorker5</t>
-  </si>
-  <si>
-    <t>DepotWorker5@DepotWorker5</t>
-  </si>
-  <si>
-    <t>DepotWorker6</t>
-  </si>
-  <si>
-    <t>1/6/2000</t>
-  </si>
-  <si>
-    <t>depot@hotmail.com</t>
-  </si>
-  <si>
-    <t>Mihai</t>
-  </si>
-  <si>
-    <t>Simion</t>
-  </si>
-  <si>
-    <t>30/12/1999</t>
+    <t>BE - Belgium</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Jake</t>
+  </si>
+  <si>
+    <t>Pal</t>
   </si>
   <si>
     <t>simion.razvan2000@gmail.com</t>
   </si>
   <si>
-    <t>BE - Belgium</t>
-  </si>
-  <si>
-    <t>Jake</t>
-  </si>
-  <si>
-    <t>Pal</t>
-  </si>
-  <si>
     <t>MT - Malta</t>
   </si>
   <si>
@@ -293,6 +296,93 @@
   </si>
   <si>
     <t>CY - Cyprus</t>
+  </si>
+  <si>
+    <t>Employee1</t>
+  </si>
+  <si>
+    <t>employee</t>
+  </si>
+  <si>
+    <t>FI - Finland</t>
+  </si>
+  <si>
+    <t>Employee2</t>
+  </si>
+  <si>
+    <t>employee2</t>
+  </si>
+  <si>
+    <t>employee@gmail.com</t>
+  </si>
+  <si>
+    <t>Employee3</t>
+  </si>
+  <si>
+    <t>employee3</t>
+  </si>
+  <si>
+    <t>employee3@gmail.com</t>
+  </si>
+  <si>
+    <t>Employee4</t>
+  </si>
+  <si>
+    <t>employee4</t>
+  </si>
+  <si>
+    <t>employee4@gmail.com</t>
+  </si>
+  <si>
+    <t>Employee5</t>
+  </si>
+  <si>
+    <t>employee5</t>
+  </si>
+  <si>
+    <t>employee5@gmail.com</t>
+  </si>
+  <si>
+    <t>Employee6</t>
+  </si>
+  <si>
+    <t>employee6</t>
+  </si>
+  <si>
+    <t>employee6@gmail.com</t>
+  </si>
+  <si>
+    <t>Admin4</t>
+  </si>
+  <si>
+    <t>admin4</t>
+  </si>
+  <si>
+    <t>admin4@gmail.com</t>
+  </si>
+  <si>
+    <t>Admin5</t>
+  </si>
+  <si>
+    <t>admin5</t>
+  </si>
+  <si>
+    <t>admin6@gmail.com</t>
+  </si>
+  <si>
+    <t>Admin6</t>
+  </si>
+  <si>
+    <t>admin6</t>
+  </si>
+  <si>
+    <t>Nikola</t>
+  </si>
+  <si>
+    <t>Yankov</t>
+  </si>
+  <si>
+    <t>DK - Denmark</t>
   </si>
 </sst>
 </file>
@@ -640,7 +730,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
   <sheetPr/>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScale="100" view="normal"/>
   </sheetViews>
@@ -671,7 +761,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -694,7 +784,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -703,53 +793,53 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -758,12 +848,12 @@
         <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
@@ -780,13 +870,11 @@
       <c r="F6" t="s">
         <v>31</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6"/>
     </row>
     <row r="7">
       <c r="A7">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
@@ -801,34 +889,36 @@
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="G7"/>
     </row>
     <row r="8">
       <c r="A8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
         <v>37</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>38</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>39</v>
       </c>
-      <c r="E8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8"/>
+      <c r="G8" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B9" t="s">
         <v>41</v>
@@ -837,315 +927,315 @@
         <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F15" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F16" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F17" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F18" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E19" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F19" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D20" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F20" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D21" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="E21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F21" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
         <v>69</v>
       </c>
-      <c r="C22" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>70</v>
       </c>
-      <c r="E22" t="s">
-        <v>71</v>
-      </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23">
@@ -1153,21 +1243,23 @@
         <v>101</v>
       </c>
       <c r="B23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" t="s">
         <v>72</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>73</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>74</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>75</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>76</v>
       </c>
-      <c r="G23"/>
     </row>
     <row r="24">
       <c r="A24">
@@ -1180,55 +1272,59 @@
         <v>78</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F24" t="s">
-        <v>79</v>
-      </c>
-      <c r="G24"/>
+        <v>80</v>
+      </c>
+      <c r="G24" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
         <v>103</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F25" t="s">
-        <v>82</v>
-      </c>
-      <c r="G25"/>
+        <v>83</v>
+      </c>
+      <c r="G25" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
         <v>104</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E26" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G26"/>
     </row>
@@ -1237,19 +1333,19 @@
         <v>105</v>
       </c>
       <c r="B27" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C27" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E27" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F27" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G27"/>
     </row>
@@ -1258,19 +1354,19 @@
         <v>106</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G28"/>
     </row>
@@ -1279,21 +1375,251 @@
         <v>107</v>
       </c>
       <c r="B29" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E29" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F29" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G29"/>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>108</v>
+      </c>
+      <c r="B30" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" t="s">
+        <v>96</v>
+      </c>
+      <c r="G30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>109</v>
+      </c>
+      <c r="B31" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s">
+        <v>99</v>
+      </c>
+      <c r="F31" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>110</v>
+      </c>
+      <c r="B32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" t="s">
+        <v>102</v>
+      </c>
+      <c r="F32" t="s">
+        <v>88</v>
+      </c>
+      <c r="G32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>111</v>
+      </c>
+      <c r="B33" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" t="s">
+        <v>105</v>
+      </c>
+      <c r="F33" t="s">
+        <v>88</v>
+      </c>
+      <c r="G33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>112</v>
+      </c>
+      <c r="B34" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" t="s">
+        <v>108</v>
+      </c>
+      <c r="F34" t="s">
+        <v>88</v>
+      </c>
+      <c r="G34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>113</v>
+      </c>
+      <c r="B35" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" t="s">
+        <v>111</v>
+      </c>
+      <c r="F35" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>114</v>
+      </c>
+      <c r="B36" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" t="s">
+        <v>113</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
+        <v>114</v>
+      </c>
+      <c r="F36" t="s">
+        <v>83</v>
+      </c>
+      <c r="G36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>115</v>
+      </c>
+      <c r="B37" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" t="s">
+        <v>117</v>
+      </c>
+      <c r="F37" t="s">
+        <v>85</v>
+      </c>
+      <c r="G37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>116</v>
+      </c>
+      <c r="B38" t="s">
+        <v>118</v>
+      </c>
+      <c r="C38" t="s">
+        <v>119</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" t="s">
+        <v>117</v>
+      </c>
+      <c r="F38" t="s">
+        <v>85</v>
+      </c>
+      <c r="G38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>117</v>
+      </c>
+      <c r="B39" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39" t="s">
+        <v>121</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" t="s">
+        <v>79</v>
+      </c>
+      <c r="F39" t="s">
+        <v>122</v>
+      </c>
+      <c r="G39" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
